--- a/Web/Content/example/MileStoneExample .xlsx
+++ b/Web/Content/example/MileStoneExample .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alicetsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benson922\Documents\irentapi20\Web\Content\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5388"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5388" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="批次匯入表單" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,21 +60,25 @@
   </si>
   <si>
     <t>Debug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.匯入項目欄位請用英文按照以下規則填寫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A123456789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Report=回報違停照片給客服
 Question=填寫官方問券
-Debug=回報系統bug
+Debug=回報系統Bug
 Advice=提供iRent建議</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.匯入項目欄位請用英文按照以下規則填寫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A123456789</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -471,7 +475,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -479,7 +483,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -487,7 +491,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -512,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -528,7 +532,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -538,7 +542,7 @@
     </row>
     <row r="4" spans="1:1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
